--- a/Tests/Validation/Wheat/Dookie2024/DookieWWHI2024.xlsx
+++ b/Tests/Validation/Wheat/Dookie2024/DookieWWHI2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\ApsimX\Tests\Validation\Wheat\Dookie2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubRepos\ApsimX\Tests\Validation\Wheat\Dookie2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901F3571-950A-428E-91FB-8A46A25B167D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586DBC38-5F45-46A6-8EDD-8E321BD9CD97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3285" yWindow="-11640" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="1" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,9 +40,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="43">
   <si>
     <t>Wheat.Height</t>
-  </si>
-  <si>
-    <t>NDVIModel.Script.NDVI</t>
   </si>
   <si>
     <t>Wheat.Phenology.HaunStage</t>
@@ -167,6 +164,9 @@
   <si>
     <t>[Wheat].Phenology.Flowering.DateToProgress</t>
   </si>
+  <si>
+    <t>Spectral.NDVI</t>
+  </si>
 </sst>
 </file>
 
@@ -175,7 +175,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="dd\-mm\-yyyy"/>
-    <numFmt numFmtId="168" formatCode="dd\-mmm\-yyyy"/>
+    <numFmt numFmtId="166" formatCode="dd\-mmm\-yyyy"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -253,22 +253,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -284,128 +284,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="dd\-mmm\-yyyy"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd\-mmm\-yyyy"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd\-mmm\-yyyy"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd\-mmm\-yyyy"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="166" formatCode="dd\-mmm\-yyyy"/>
     </dxf>
     <dxf>
       <fill>
@@ -9571,7 +9450,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{89576445-AE18-40FE-A054-14B5979AAFDE}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{89576445-AE18-40FE-A054-14B5979AAFDE}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="F10:I27" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField axis="axisRow" showAll="0">
@@ -9692,7 +9571,7 @@
     <dataField name="Max of Clock.Today" fld="1" subtotal="max" baseField="0" baseItem="0" numFmtId="165"/>
   </dataFields>
   <formats count="5">
-    <format dxfId="23">
+    <format dxfId="4">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -9701,7 +9580,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="22">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -9710,14 +9589,14 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="17">
+    <format dxfId="2">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="16">
+    <format dxfId="1">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -9726,7 +9605,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -10037,76 +9916,76 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R453"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:R453"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="R1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2">
         <v>45443</v>
@@ -10115,9 +9994,9 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2">
         <v>45460</v>
@@ -10126,9 +10005,9 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2">
         <v>45474</v>
@@ -10137,9 +10016,9 @@
         <v>0.24249999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2">
         <v>45487</v>
@@ -10148,9 +10027,9 @@
         <v>0.34250000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2">
         <v>45502</v>
@@ -10159,9 +10038,9 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2">
         <v>45513</v>
@@ -10170,9 +10049,9 @@
         <v>0.54749999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2">
         <v>45526</v>
@@ -10181,9 +10060,9 @@
         <v>0.67749999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2">
         <v>45548</v>
@@ -10192,9 +10071,9 @@
         <v>0.83499999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2">
         <v>45559</v>
@@ -10203,9 +10082,9 @@
         <v>0.79249999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2">
         <v>45571</v>
@@ -10214,9 +10093,9 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2">
         <v>45582</v>
@@ -10225,9 +10104,9 @@
         <v>0.57750000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="2">
         <v>45594</v>
@@ -10236,9 +10115,9 @@
         <v>0.38500000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="2">
         <v>45609</v>
@@ -10247,9 +10126,9 @@
         <v>0.1125</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="2">
         <v>45443</v>
@@ -10258,9 +10137,9 @@
         <v>0.28499999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="2">
         <v>45460</v>
@@ -10269,9 +10148,9 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="2">
         <v>45474</v>
@@ -10280,9 +10159,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2">
         <v>45487</v>
@@ -10291,9 +10170,9 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2">
         <v>45502</v>
@@ -10302,9 +10181,9 @@
         <v>0.67249999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="2">
         <v>45513</v>
@@ -10313,9 +10192,9 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="2">
         <v>45526</v>
@@ -10324,9 +10203,9 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22" s="2">
         <v>45548</v>
@@ -10335,9 +10214,9 @@
         <v>0.83499999999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23" s="2">
         <v>45559</v>
@@ -10346,9 +10225,9 @@
         <v>0.77749999999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B24" s="2">
         <v>45571</v>
@@ -10357,9 +10236,9 @@
         <v>0.72750000000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B25" s="2">
         <v>45582</v>
@@ -10368,9 +10247,9 @@
         <v>0.5575</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B26" s="2">
         <v>45594</v>
@@ -10379,9 +10258,9 @@
         <v>0.34749999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B27" s="2">
         <v>45609</v>
@@ -10390,9 +10269,9 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" s="2">
         <v>45443</v>
@@ -10401,9 +10280,9 @@
         <v>0.1825</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B29" s="2">
         <v>45460</v>
@@ -10412,9 +10291,9 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B30" s="2">
         <v>45474</v>
@@ -10423,9 +10302,9 @@
         <v>0.27500000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B31" s="2">
         <v>45487</v>
@@ -10434,9 +10313,9 @@
         <v>0.39250000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B32" s="2">
         <v>45502</v>
@@ -10445,9 +10324,9 @@
         <v>0.54749999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B33" s="2">
         <v>45513</v>
@@ -10456,9 +10335,9 @@
         <v>0.61499999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B34" s="2">
         <v>45526</v>
@@ -10467,9 +10346,9 @@
         <v>0.6925</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B35" s="2">
         <v>45548</v>
@@ -10478,9 +10357,9 @@
         <v>0.83749999999999991</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B36" s="2">
         <v>45559</v>
@@ -10489,9 +10368,9 @@
         <v>0.78249999999999997</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B37" s="2">
         <v>45571</v>
@@ -10500,9 +10379,9 @@
         <v>0.70499999999999996</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B38" s="2">
         <v>45582</v>
@@ -10511,9 +10390,9 @@
         <v>0.50249999999999995</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B39" s="2">
         <v>45594</v>
@@ -10522,9 +10401,9 @@
         <v>0.3075</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B40" s="2">
         <v>45609</v>
@@ -10533,9 +10412,9 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B41" s="2">
         <v>45443</v>
@@ -10544,9 +10423,9 @@
         <v>0.33250000000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B42" s="2">
         <v>45460</v>
@@ -10555,9 +10434,9 @@
         <v>0.42749999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B43" s="2">
         <v>45474</v>
@@ -10566,9 +10445,9 @@
         <v>0.57250000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B44" s="2">
         <v>45487</v>
@@ -10577,9 +10456,9 @@
         <v>0.64500000000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B45" s="2">
         <v>45502</v>
@@ -10588,9 +10467,9 @@
         <v>0.71250000000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B46" s="2">
         <v>45513</v>
@@ -10599,9 +10478,9 @@
         <v>0.71750000000000003</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B47" s="2">
         <v>45526</v>
@@ -10610,9 +10489,9 @@
         <v>0.68500000000000005</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B48" s="2">
         <v>45548</v>
@@ -10621,9 +10500,9 @@
         <v>0.84499999999999997</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B49" s="2">
         <v>45559</v>
@@ -10632,9 +10511,9 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B50" s="2">
         <v>45571</v>
@@ -10643,9 +10522,9 @@
         <v>0.745</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B51" s="2">
         <v>45582</v>
@@ -10654,9 +10533,9 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B52" s="2">
         <v>45594</v>
@@ -10665,9 +10544,9 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B53" s="2">
         <v>45609</v>
@@ -10676,9 +10555,9 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B54" s="2">
         <v>45443</v>
@@ -10687,9 +10566,9 @@
         <v>0.16500000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B55" s="2">
         <v>45460</v>
@@ -10698,9 +10577,9 @@
         <v>0.16500000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B56" s="2">
         <v>45474</v>
@@ -10709,9 +10588,9 @@
         <v>0.26750000000000002</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B57" s="2">
         <v>45487</v>
@@ -10720,9 +10599,9 @@
         <v>0.35499999999999998</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B58" s="2">
         <v>45502</v>
@@ -10731,9 +10610,9 @@
         <v>0.51750000000000007</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B59" s="2">
         <v>45513</v>
@@ -10742,9 +10621,9 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B60" s="2">
         <v>45526</v>
@@ -10753,9 +10632,9 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B61" s="2">
         <v>45548</v>
@@ -10764,9 +10643,9 @@
         <v>0.80249999999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B62" s="2">
         <v>45559</v>
@@ -10775,9 +10654,9 @@
         <v>0.71249999999999991</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B63" s="2">
         <v>45571</v>
@@ -10786,9 +10665,9 @@
         <v>0.66500000000000004</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B64" s="2">
         <v>45582</v>
@@ -10797,9 +10676,9 @@
         <v>0.435</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B65" s="2">
         <v>45594</v>
@@ -10808,9 +10687,9 @@
         <v>0.2525</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B66" s="2">
         <v>45609</v>
@@ -10819,9 +10698,9 @@
         <v>0.11749999999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B67" s="2">
         <v>45443</v>
@@ -10830,9 +10709,9 @@
         <v>0.17749999999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B68" s="2">
         <v>45460</v>
@@ -10841,9 +10720,9 @@
         <v>0.17249999999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B69" s="2">
         <v>45474</v>
@@ -10852,9 +10731,9 @@
         <v>0.2525</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B70" s="2">
         <v>45487</v>
@@ -10863,9 +10742,9 @@
         <v>0.38750000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B71" s="2">
         <v>45502</v>
@@ -10874,9 +10753,9 @@
         <v>0.54249999999999998</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B72" s="2">
         <v>45513</v>
@@ -10885,9 +10764,9 @@
         <v>0.61250000000000004</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B73" s="2">
         <v>45526</v>
@@ -10896,9 +10775,9 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B74" s="2">
         <v>45548</v>
@@ -10907,9 +10786,9 @@
         <v>0.83749999999999991</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B75" s="2">
         <v>45559</v>
@@ -10918,9 +10797,9 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B76" s="2">
         <v>45571</v>
@@ -10929,9 +10808,9 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B77" s="2">
         <v>45582</v>
@@ -10940,9 +10819,9 @@
         <v>0.59750000000000003</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B78" s="2">
         <v>45594</v>
@@ -10951,9 +10830,9 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B79" s="2">
         <v>45609</v>
@@ -10962,9 +10841,9 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B80" s="2">
         <v>45443</v>
@@ -10973,9 +10852,9 @@
         <v>0.26750000000000002</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B81" s="2">
         <v>45460</v>
@@ -10984,9 +10863,9 @@
         <v>0.29749999999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B82" s="2">
         <v>45474</v>
@@ -10995,9 +10874,9 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B83" s="2">
         <v>45487</v>
@@ -11006,9 +10885,9 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B84" s="2">
         <v>45502</v>
@@ -11017,9 +10896,9 @@
         <v>0.59250000000000003</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B85" s="2">
         <v>45513</v>
@@ -11028,9 +10907,9 @@
         <v>0.63749999999999996</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B86" s="2">
         <v>45526</v>
@@ -11039,9 +10918,9 @@
         <v>0.66249999999999998</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B87" s="2">
         <v>45548</v>
@@ -11050,9 +10929,9 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B88" s="2">
         <v>45559</v>
@@ -11061,9 +10940,9 @@
         <v>0.75249999999999995</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B89" s="2">
         <v>45571</v>
@@ -11072,9 +10951,9 @@
         <v>0.67999999999999994</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B90" s="2">
         <v>45582</v>
@@ -11083,9 +10962,9 @@
         <v>0.46250000000000002</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B91" s="2">
         <v>45594</v>
@@ -11094,9 +10973,9 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B92" s="2">
         <v>45609</v>
@@ -11105,9 +10984,9 @@
         <v>0.11749999999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B93" s="2">
         <v>45443</v>
@@ -11116,9 +10995,9 @@
         <v>0.27750000000000002</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B94" s="2">
         <v>45460</v>
@@ -11127,9 +11006,9 @@
         <v>0.34250000000000003</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B95" s="2">
         <v>45474</v>
@@ -11138,9 +11017,9 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B96" s="2">
         <v>45487</v>
@@ -11149,9 +11028,9 @@
         <v>0.59000000000000008</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B97" s="2">
         <v>45502</v>
@@ -11160,9 +11039,9 @@
         <v>0.67500000000000004</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B98" s="2">
         <v>45513</v>
@@ -11171,9 +11050,9 @@
         <v>0.71249999999999991</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B99" s="2">
         <v>45526</v>
@@ -11182,9 +11061,9 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B100" s="2">
         <v>45548</v>
@@ -11193,9 +11072,9 @@
         <v>0.84250000000000003</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B101" s="2">
         <v>45559</v>
@@ -11204,9 +11083,9 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B102" s="2">
         <v>45571</v>
@@ -11215,9 +11094,9 @@
         <v>0.69750000000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B103" s="2">
         <v>45582</v>
@@ -11226,9 +11105,9 @@
         <v>0.54749999999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B104" s="2">
         <v>45594</v>
@@ -11237,9 +11116,9 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B105" s="2">
         <v>45609</v>
@@ -11248,9 +11127,9 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B106" s="2">
         <v>45443</v>
@@ -11259,9 +11138,9 @@
         <v>0.28249999999999997</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B107" s="2">
         <v>45460</v>
@@ -11270,9 +11149,9 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B108" s="2">
         <v>45474</v>
@@ -11281,9 +11160,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B109" s="2">
         <v>45487</v>
@@ -11292,9 +11171,9 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B110" s="2">
         <v>45502</v>
@@ -11303,9 +11182,9 @@
         <v>0.66250000000000009</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B111" s="2">
         <v>45513</v>
@@ -11314,9 +11193,9 @@
         <v>0.6925</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B112" s="2">
         <v>45526</v>
@@ -11325,9 +11204,9 @@
         <v>0.69499999999999995</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B113" s="2">
         <v>45548</v>
@@ -11336,9 +11215,9 @@
         <v>0.82499999999999996</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B114" s="2">
         <v>45559</v>
@@ -11347,9 +11226,9 @@
         <v>0.78249999999999997</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B115" s="2">
         <v>45571</v>
@@ -11358,9 +11237,9 @@
         <v>0.73249999999999993</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B116" s="2">
         <v>45582</v>
@@ -11369,9 +11248,9 @@
         <v>0.5625</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B117" s="2">
         <v>45594</v>
@@ -11380,9 +11259,9 @@
         <v>0.3725</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B118" s="2">
         <v>45609</v>
@@ -11391,9 +11270,9 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B119" s="2">
         <v>45443</v>
@@ -11402,9 +11281,9 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B120" s="2">
         <v>45460</v>
@@ -11413,9 +11292,9 @@
         <v>0.185</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B121" s="2">
         <v>45474</v>
@@ -11424,9 +11303,9 @@
         <v>0.26750000000000002</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B122" s="2">
         <v>45487</v>
@@ -11435,9 +11314,9 @@
         <v>0.3775</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B123" s="2">
         <v>45502</v>
@@ -11446,9 +11325,9 @@
         <v>0.4975</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B124" s="2">
         <v>45513</v>
@@ -11457,9 +11336,9 @@
         <v>0.57250000000000001</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B125" s="2">
         <v>45526</v>
@@ -11468,9 +11347,9 @@
         <v>0.63500000000000001</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B126" s="2">
         <v>45548</v>
@@ -11479,9 +11358,9 @@
         <v>0.8075</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B127" s="2">
         <v>45559</v>
@@ -11490,9 +11369,9 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B128" s="2">
         <v>45571</v>
@@ -11501,9 +11380,9 @@
         <v>0.66999999999999993</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B129" s="2">
         <v>45582</v>
@@ -11512,9 +11391,9 @@
         <v>0.4425</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B130" s="2">
         <v>45594</v>
@@ -11523,9 +11402,9 @@
         <v>0.28499999999999998</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B131" s="2">
         <v>45609</v>
@@ -11534,9 +11413,9 @@
         <v>0.105</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B132" s="2">
         <v>45443</v>
@@ -11545,9 +11424,9 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B133" s="2">
         <v>45460</v>
@@ -11556,9 +11435,9 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B134" s="2">
         <v>45474</v>
@@ -11567,9 +11446,9 @@
         <v>0.23250000000000001</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B135" s="2">
         <v>45487</v>
@@ -11578,9 +11457,9 @@
         <v>0.33750000000000002</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B136" s="2">
         <v>45502</v>
@@ -11589,9 +11468,9 @@
         <v>0.4975</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B137" s="2">
         <v>45513</v>
@@ -11600,9 +11479,9 @@
         <v>0.55499999999999994</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B138" s="2">
         <v>45526</v>
@@ -11611,9 +11490,9 @@
         <v>0.69750000000000001</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B139" s="2">
         <v>45548</v>
@@ -11622,9 +11501,9 @@
         <v>0.82250000000000001</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B140" s="2">
         <v>45559</v>
@@ -11633,9 +11512,9 @@
         <v>0.76749999999999996</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B141" s="2">
         <v>45571</v>
@@ -11644,9 +11523,9 @@
         <v>0.73250000000000004</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B142" s="2">
         <v>45582</v>
@@ -11655,9 +11534,9 @@
         <v>0.57250000000000001</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B143" s="2">
         <v>45594</v>
@@ -11666,9 +11545,9 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B144" s="2">
         <v>45609</v>
@@ -11677,9 +11556,9 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B145" s="2">
         <v>45443</v>
@@ -11688,9 +11567,9 @@
         <v>0.26500000000000001</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B146" s="2">
         <v>45460</v>
@@ -11699,9 +11578,9 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B147" s="2">
         <v>45474</v>
@@ -11710,9 +11589,9 @@
         <v>0.51749999999999996</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B148" s="2">
         <v>45487</v>
@@ -11721,9 +11600,9 @@
         <v>0.57000000000000006</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B149" s="2">
         <v>45502</v>
@@ -11732,9 +11611,9 @@
         <v>0.65749999999999997</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B150" s="2">
         <v>45513</v>
@@ -11743,9 +11622,9 @@
         <v>0.67500000000000004</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B151" s="2">
         <v>45526</v>
@@ -11754,9 +11633,9 @@
         <v>0.64749999999999996</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B152" s="2">
         <v>45548</v>
@@ -11765,9 +11644,9 @@
         <v>0.83499999999999996</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B153" s="2">
         <v>45559</v>
@@ -11776,9 +11655,9 @@
         <v>0.77249999999999996</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B154" s="2">
         <v>45571</v>
@@ -11787,9 +11666,9 @@
         <v>0.6925</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B155" s="2">
         <v>45582</v>
@@ -11798,9 +11677,9 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B156" s="2">
         <v>45594</v>
@@ -11809,9 +11688,9 @@
         <v>0.36749999999999999</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B157" s="2">
         <v>45609</v>
@@ -11820,9 +11699,9 @@
         <v>0.105</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B158" s="2">
         <v>45443</v>
@@ -11831,9 +11710,9 @@
         <v>0.26750000000000002</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B159" s="2">
         <v>45460</v>
@@ -11842,9 +11721,9 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B160" s="2">
         <v>45474</v>
@@ -11853,9 +11732,9 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B161" s="2">
         <v>45487</v>
@@ -11864,9 +11743,9 @@
         <v>0.54749999999999999</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B162" s="2">
         <v>45502</v>
@@ -11875,9 +11754,9 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B163" s="2">
         <v>45513</v>
@@ -11886,9 +11765,9 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B164" s="2">
         <v>45526</v>
@@ -11897,9 +11776,9 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B165" s="2">
         <v>45548</v>
@@ -11908,9 +11787,9 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B166" s="2">
         <v>45559</v>
@@ -11919,9 +11798,9 @@
         <v>0.76750000000000007</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B167" s="2">
         <v>45571</v>
@@ -11930,9 +11809,9 @@
         <v>0.71499999999999997</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B168" s="2">
         <v>45582</v>
@@ -11941,9 +11820,9 @@
         <v>0.53500000000000003</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B169" s="2">
         <v>45594</v>
@@ -11952,9 +11831,9 @@
         <v>0.28749999999999998</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B170" s="2">
         <v>45609</v>
@@ -11963,9 +11842,9 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B171" s="2">
         <v>45443</v>
@@ -11974,9 +11853,9 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B172" s="2">
         <v>45460</v>
@@ -11985,9 +11864,9 @@
         <v>0.17249999999999999</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B173" s="2">
         <v>45474</v>
@@ -11996,9 +11875,9 @@
         <v>0.26750000000000002</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B174" s="2">
         <v>45487</v>
@@ -12007,9 +11886,9 @@
         <v>0.36249999999999999</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B175" s="2">
         <v>45502</v>
@@ -12018,9 +11897,9 @@
         <v>0.53749999999999998</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B176" s="2">
         <v>45513</v>
@@ -12029,9 +11908,9 @@
         <v>0.57000000000000006</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B177" s="2">
         <v>45526</v>
@@ -12040,9 +11919,9 @@
         <v>0.70499999999999996</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B178" s="2">
         <v>45548</v>
@@ -12051,9 +11930,9 @@
         <v>0.82000000000000006</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B179" s="2">
         <v>45559</v>
@@ -12062,9 +11941,9 @@
         <v>0.73750000000000004</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B180" s="2">
         <v>45571</v>
@@ -12073,9 +11952,9 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B181" s="2">
         <v>45582</v>
@@ -12084,9 +11963,9 @@
         <v>0.48249999999999998</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B182" s="2">
         <v>45594</v>
@@ -12095,9 +11974,9 @@
         <v>0.30249999999999999</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B183" s="2">
         <v>45609</v>
@@ -12106,9 +11985,9 @@
         <v>0.1225</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B184" s="2">
         <v>45443</v>
@@ -12117,9 +11996,9 @@
         <v>0.27250000000000002</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B185" s="2">
         <v>45460</v>
@@ -12128,9 +12007,9 @@
         <v>0.3175</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B186" s="2">
         <v>45474</v>
@@ -12139,9 +12018,9 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B187" s="2">
         <v>45487</v>
@@ -12150,9 +12029,9 @@
         <v>0.5675</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B188" s="2">
         <v>45502</v>
@@ -12161,9 +12040,9 @@
         <v>0.66749999999999998</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B189" s="2">
         <v>45513</v>
@@ -12172,9 +12051,9 @@
         <v>0.6925</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B190" s="2">
         <v>45526</v>
@@ -12183,9 +12062,9 @@
         <v>0.75250000000000006</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B191" s="2">
         <v>45548</v>
@@ -12194,9 +12073,9 @@
         <v>0.85499999999999998</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B192" s="2">
         <v>45559</v>
@@ -12205,9 +12084,9 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B193" s="2">
         <v>45571</v>
@@ -12216,9 +12095,9 @@
         <v>0.72499999999999998</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B194" s="2">
         <v>45582</v>
@@ -12227,9 +12106,9 @@
         <v>0.61250000000000004</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B195" s="2">
         <v>45594</v>
@@ -12238,9 +12117,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B196" s="2">
         <v>45609</v>
@@ -12249,9 +12128,9 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B197" s="2">
         <v>45443</v>
@@ -12260,9 +12139,9 @@
         <v>0.17749999999999999</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B198" s="2">
         <v>45460</v>
@@ -12271,9 +12150,9 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B199" s="2">
         <v>45474</v>
@@ -12282,9 +12161,9 @@
         <v>0.2525</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B200" s="2">
         <v>45487</v>
@@ -12293,9 +12172,9 @@
         <v>0.35499999999999998</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B201" s="2">
         <v>45502</v>
@@ -12304,9 +12183,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B202" s="2">
         <v>45513</v>
@@ -12315,9 +12194,9 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B203" s="2">
         <v>45526</v>
@@ -12326,9 +12205,9 @@
         <v>0.62749999999999995</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B204" s="2">
         <v>45548</v>
@@ -12337,9 +12216,9 @@
         <v>0.82000000000000006</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B205" s="2">
         <v>45559</v>
@@ -12348,9 +12227,9 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B206" s="2">
         <v>45571</v>
@@ -12359,9 +12238,9 @@
         <v>0.69500000000000006</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B207" s="2">
         <v>45582</v>
@@ -12370,9 +12249,9 @@
         <v>0.54249999999999998</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B208" s="2">
         <v>45594</v>
@@ -12381,9 +12260,9 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B209" s="2">
         <v>45609</v>
@@ -12392,9 +12271,9 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B210" s="2">
         <v>45467</v>
@@ -12403,9 +12282,9 @@
         <v>3.0166666666666671</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B211" s="2">
         <v>45477</v>
@@ -12414,9 +12293,9 @@
         <v>3.8416666666666668</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B212" s="2">
         <v>45488</v>
@@ -12425,9 +12304,9 @@
         <v>4.8666666666666671</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B213" s="2">
         <v>45499</v>
@@ -12436,9 +12315,9 @@
         <v>5.9583333333333339</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B214" s="2">
         <v>45513</v>
@@ -12447,9 +12326,9 @@
         <v>6.9833333333333334</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B215" s="2">
         <v>45523</v>
@@ -12458,9 +12337,9 @@
         <v>8.0749999999999993</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B216" s="2">
         <v>45535</v>
@@ -12469,9 +12348,9 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B217" s="2">
         <v>45549</v>
@@ -12480,9 +12359,9 @@
         <v>10.41666666666667</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B218" s="2">
         <v>45436</v>
@@ -12491,9 +12370,9 @@
         <v>4.1416666666666666</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B219" s="2">
         <v>45446</v>
@@ -12502,9 +12381,9 @@
         <v>5.0666666666666664</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B220" s="2">
         <v>45457</v>
@@ -12513,9 +12392,9 @@
         <v>6.1916666666666664</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B221" s="2">
         <v>45468</v>
@@ -12524,9 +12403,9 @@
         <v>6.8416666666666668</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B222" s="2">
         <v>45483</v>
@@ -12535,9 +12414,9 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B223" s="2">
         <v>45496</v>
@@ -12546,9 +12425,9 @@
         <v>8.7083333333333339</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B224" s="2">
         <v>45512</v>
@@ -12557,9 +12436,9 @@
         <v>10.050000000000001</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B225" s="2">
         <v>45522</v>
@@ -12568,9 +12447,9 @@
         <v>11.06666666666667</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B226" s="2">
         <v>45532</v>
@@ -12579,9 +12458,9 @@
         <v>12.09166666666667</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B227" s="2">
         <v>45549</v>
@@ -12590,9 +12469,9 @@
         <v>12.83333333333333</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B228" s="2">
         <v>45467</v>
@@ -12601,9 +12480,9 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B229" s="2">
         <v>45477</v>
@@ -12612,9 +12491,9 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B230" s="2">
         <v>45488</v>
@@ -12623,9 +12502,9 @@
         <v>5.1083333333333334</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B231" s="2">
         <v>45499</v>
@@ -12634,9 +12513,9 @@
         <v>6.1416666666666666</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B232" s="2">
         <v>45513</v>
@@ -12645,9 +12524,9 @@
         <v>7.4249999999999998</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B233" s="2">
         <v>45523</v>
@@ -12656,9 +12535,9 @@
         <v>8.4416666666666664</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B234" s="2">
         <v>45535</v>
@@ -12667,9 +12546,9 @@
         <v>9.8833333333333329</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B235" s="2">
         <v>45549</v>
@@ -12678,9 +12557,9 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B236" s="2">
         <v>45436</v>
@@ -12689,9 +12568,9 @@
         <v>4.1666666666666661</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B237" s="2">
         <v>45446</v>
@@ -12700,9 +12579,9 @@
         <v>5.1583333333333341</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B238" s="2">
         <v>45457</v>
@@ -12711,9 +12590,9 @@
         <v>6.3416666666666668</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B239" s="2">
         <v>45468</v>
@@ -12722,9 +12601,9 @@
         <v>6.9666666666666668</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B240" s="2">
         <v>45483</v>
@@ -12733,9 +12612,9 @@
         <v>7.9333333333333336</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B241" s="2">
         <v>45496</v>
@@ -12744,9 +12623,9 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B242" s="2">
         <v>45512</v>
@@ -12755,9 +12634,9 @@
         <v>9.8500000000000014</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B243" s="2">
         <v>45522</v>
@@ -12766,9 +12645,9 @@
         <v>10.68333333333333</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B244" s="2">
         <v>45532</v>
@@ -12777,9 +12656,9 @@
         <v>11.824999999999999</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B245" s="2">
         <v>45549</v>
@@ -12788,9 +12667,9 @@
         <v>13.06666666666667</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B246" s="2">
         <v>45559</v>
@@ -12799,9 +12678,9 @@
         <v>13.25</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B247" s="2">
         <v>45467</v>
@@ -12810,9 +12689,9 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B248" s="2">
         <v>45477</v>
@@ -12821,9 +12700,9 @@
         <v>4.05</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B249" s="2">
         <v>45488</v>
@@ -12832,9 +12711,9 @@
         <v>5.041666666666667</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B250" s="2">
         <v>45499</v>
@@ -12843,9 +12722,9 @@
         <v>6.0666666666666664</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B251" s="2">
         <v>45513</v>
@@ -12854,9 +12733,9 @@
         <v>7.0250000000000004</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B252" s="2">
         <v>45523</v>
@@ -12865,9 +12744,9 @@
         <v>8.1833333333333336</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B253" s="2">
         <v>45535</v>
@@ -12876,9 +12755,9 @@
         <v>9.3666666666666671</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B254" s="2">
         <v>45549</v>
@@ -12887,9 +12766,9 @@
         <v>9.8333333333333321</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B255" s="2">
         <v>45467</v>
@@ -12898,9 +12777,9 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B256" s="2">
         <v>45477</v>
@@ -12909,9 +12788,9 @@
         <v>4.1416666666666666</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B257" s="2">
         <v>45488</v>
@@ -12920,9 +12799,9 @@
         <v>5.166666666666667</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B258" s="2">
         <v>45499</v>
@@ -12931,9 +12810,9 @@
         <v>6.2250000000000014</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B259" s="2">
         <v>45513</v>
@@ -12942,9 +12821,9 @@
         <v>7.3416666666666668</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B260" s="2">
         <v>45523</v>
@@ -12953,9 +12832,9 @@
         <v>8.4083333333333332</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B261" s="2">
         <v>45535</v>
@@ -12964,9 +12843,9 @@
         <v>9.8666666666666671</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B262" s="2">
         <v>45549</v>
@@ -12975,9 +12854,9 @@
         <v>10.91666666666667</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B263" s="2">
         <v>45436</v>
@@ -12986,9 +12865,9 @@
         <v>4.1416666666666666</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B264" s="2">
         <v>45446</v>
@@ -12997,9 +12876,9 @@
         <v>5.2249999999999996</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B265" s="2">
         <v>45457</v>
@@ -13008,9 +12887,9 @@
         <v>6.1916666666666664</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B266" s="2">
         <v>45468</v>
@@ -13019,9 +12898,9 @@
         <v>6.9333333333333336</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B267" s="2">
         <v>45483</v>
@@ -13030,9 +12909,9 @@
         <v>7.958333333333333</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B268" s="2">
         <v>45496</v>
@@ -13041,9 +12920,9 @@
         <v>8.9666666666666668</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B269" s="2">
         <v>45512</v>
@@ -13052,9 +12931,9 @@
         <v>10.266666666666669</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B270" s="2">
         <v>45522</v>
@@ -13063,9 +12942,9 @@
         <v>11.275</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B271" s="2">
         <v>45532</v>
@@ -13074,9 +12953,9 @@
         <v>12.358333333333331</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B272" s="2">
         <v>45549</v>
@@ -13085,9 +12964,9 @@
         <v>12.91666666666667</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B273" s="2">
         <v>45436</v>
@@ -13096,9 +12975,9 @@
         <v>3.958333333333333</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B274" s="2">
         <v>45446</v>
@@ -13107,9 +12986,9 @@
         <v>5.083333333333333</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B275" s="2">
         <v>45457</v>
@@ -13118,9 +12997,9 @@
         <v>6.166666666666667</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B276" s="2">
         <v>45468</v>
@@ -13129,9 +13008,9 @@
         <v>6.8333333333333339</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B277" s="2">
         <v>45483</v>
@@ -13140,9 +13019,9 @@
         <v>7.8666666666666663</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B278" s="2">
         <v>45496</v>
@@ -13151,9 +13030,9 @@
         <v>8.8083333333333336</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B279" s="2">
         <v>45512</v>
@@ -13162,9 +13041,9 @@
         <v>9.9916666666666671</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B280" s="2">
         <v>45522</v>
@@ -13173,9 +13052,9 @@
         <v>11.04166666666667</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B281" s="2">
         <v>45532</v>
@@ -13184,9 +13063,9 @@
         <v>12.391666666666669</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B282" s="2">
         <v>45549</v>
@@ -13195,9 +13074,9 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B283" s="2">
         <v>45436</v>
@@ -13206,9 +13085,9 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B284" s="2">
         <v>45446</v>
@@ -13217,9 +13096,9 @@
         <v>5.1583333333333332</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B285" s="2">
         <v>45457</v>
@@ -13228,9 +13107,9 @@
         <v>6.1749999999999989</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B286" s="2">
         <v>45468</v>
@@ -13239,9 +13118,9 @@
         <v>6.7583333333333329</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B287" s="2">
         <v>45483</v>
@@ -13250,9 +13129,9 @@
         <v>7.7583333333333329</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B288" s="2">
         <v>45496</v>
@@ -13261,9 +13140,9 @@
         <v>8.6750000000000007</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B289" s="2">
         <v>45512</v>
@@ -13272,9 +13151,9 @@
         <v>9.7833333333333332</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B290" s="2">
         <v>45522</v>
@@ -13283,9 +13162,9 @@
         <v>10.69166666666667</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B291" s="2">
         <v>45532</v>
@@ -13294,9 +13173,9 @@
         <v>11.824999999999999</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B292" s="2">
         <v>45549</v>
@@ -13305,9 +13184,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B293" s="2">
         <v>45467</v>
@@ -13316,9 +13195,9 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B294" s="2">
         <v>45477</v>
@@ -13327,9 +13206,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B295" s="2">
         <v>45488</v>
@@ -13338,9 +13217,9 @@
         <v>4.9749999999999996</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B296" s="2">
         <v>45499</v>
@@ -13349,9 +13228,9 @@
         <v>5.9416666666666664</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B297" s="2">
         <v>45513</v>
@@ -13360,9 +13239,9 @@
         <v>6.8500000000000014</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B298" s="2">
         <v>45523</v>
@@ -13371,9 +13250,9 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B299" s="2">
         <v>45535</v>
@@ -13382,9 +13261,9 @@
         <v>9.15</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B300" s="2">
         <v>45549</v>
@@ -13393,9 +13272,9 @@
         <v>9.75</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B301" s="2">
         <v>45467</v>
@@ -13404,9 +13283,9 @@
         <v>3.1416666666666671</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B302" s="2">
         <v>45477</v>
@@ -13415,9 +13294,9 @@
         <v>3.9416666666666669</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B303" s="2">
         <v>45488</v>
@@ -13426,9 +13305,9 @@
         <v>4.7750000000000004</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B304" s="2">
         <v>45499</v>
@@ -13437,9 +13316,9 @@
         <v>5.7250000000000014</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B305" s="2">
         <v>45513</v>
@@ -13448,9 +13327,9 @@
         <v>6.7333333333333334</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B306" s="2">
         <v>45523</v>
@@ -13459,9 +13338,9 @@
         <v>7.7249999999999996</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B307" s="2">
         <v>45535</v>
@@ -13470,9 +13349,9 @@
         <v>9.0666666666666664</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B308" s="2">
         <v>45549</v>
@@ -13481,9 +13360,9 @@
         <v>10.050000000000001</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B309" s="2">
         <v>45559</v>
@@ -13492,9 +13371,9 @@
         <v>10.08333333333333</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B310" s="2">
         <v>45436</v>
@@ -13503,9 +13382,9 @@
         <v>3.941666666666666</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B311" s="2">
         <v>45446</v>
@@ -13514,9 +13393,9 @@
         <v>4.9249999999999998</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B312" s="2">
         <v>45457</v>
@@ -13525,9 +13404,9 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B313" s="2">
         <v>45468</v>
@@ -13536,9 +13415,9 @@
         <v>6.5583333333333336</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B314" s="2">
         <v>45483</v>
@@ -13547,9 +13426,9 @@
         <v>7.4249999999999998</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B315" s="2">
         <v>45496</v>
@@ -13558,9 +13437,9 @@
         <v>8.3083333333333336</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B316" s="2">
         <v>45512</v>
@@ -13569,9 +13448,9 @@
         <v>9.3333333333333339</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B317" s="2">
         <v>45522</v>
@@ -13580,9 +13459,9 @@
         <v>10.21666666666667</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B318" s="2">
         <v>45532</v>
@@ -13591,9 +13470,9 @@
         <v>11.324999999999999</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B319" s="2">
         <v>45549</v>
@@ -13602,9 +13481,9 @@
         <v>12.33333333333333</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B320" s="2">
         <v>45436</v>
@@ -13613,9 +13492,9 @@
         <v>4.1333333333333329</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B321" s="2">
         <v>45446</v>
@@ -13624,9 +13503,9 @@
         <v>5.1999999999999993</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B322" s="2">
         <v>45457</v>
@@ -13635,9 +13514,9 @@
         <v>6.3083333333333336</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B323" s="2">
         <v>45468</v>
@@ -13646,9 +13525,9 @@
         <v>6.9666666666666668</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B324" s="2">
         <v>45483</v>
@@ -13657,9 +13536,9 @@
         <v>7.9666666666666659</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B325" s="2">
         <v>45496</v>
@@ -13668,9 +13547,9 @@
         <v>8.8666666666666671</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B326" s="2">
         <v>45512</v>
@@ -13679,9 +13558,9 @@
         <v>10.116666666666671</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B327" s="2">
         <v>45522</v>
@@ -13690,9 +13569,9 @@
         <v>10.983333333333331</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B328" s="2">
         <v>45532</v>
@@ -13701,9 +13580,9 @@
         <v>11.94166666666667</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B329" s="2">
         <v>45549</v>
@@ -13712,9 +13591,9 @@
         <v>12.41666666666667</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B330" s="2">
         <v>45467</v>
@@ -13723,9 +13602,9 @@
         <v>3.083333333333333</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B331" s="2">
         <v>45477</v>
@@ -13734,9 +13613,9 @@
         <v>3.9333333333333331</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B332" s="2">
         <v>45488</v>
@@ -13745,9 +13624,9 @@
         <v>4.9416666666666664</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B333" s="2">
         <v>45499</v>
@@ -13756,9 +13635,9 @@
         <v>5.9583333333333339</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B334" s="2">
         <v>45513</v>
@@ -13767,9 +13646,9 @@
         <v>6.8000000000000007</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B335" s="2">
         <v>45523</v>
@@ -13778,9 +13657,9 @@
         <v>7.708333333333333</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B336" s="2">
         <v>45535</v>
@@ -13789,9 +13668,9 @@
         <v>8.9749999999999996</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B337" s="2">
         <v>45549</v>
@@ -13800,9 +13679,9 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B338" s="2">
         <v>45559</v>
@@ -13811,9 +13690,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B339" s="2">
         <v>45436</v>
@@ -13822,9 +13701,9 @@
         <v>4.1166666666666663</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B340" s="2">
         <v>45446</v>
@@ -13833,9 +13712,9 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B341" s="2">
         <v>45457</v>
@@ -13844,9 +13723,9 @@
         <v>6.1416666666666666</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B342" s="2">
         <v>45468</v>
@@ -13855,9 +13734,9 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B343" s="2">
         <v>45483</v>
@@ -13866,9 +13745,9 @@
         <v>7.7416666666666671</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B344" s="2">
         <v>45496</v>
@@ -13877,9 +13756,9 @@
         <v>8.6083333333333343</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B345" s="2">
         <v>45512</v>
@@ -13888,9 +13767,9 @@
         <v>9.7666666666666657</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B346" s="2">
         <v>45522</v>
@@ -13899,9 +13778,9 @@
         <v>10.733333333333331</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B347" s="2">
         <v>45532</v>
@@ -13910,9 +13789,9 @@
         <v>12.008333333333329</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B348" s="2">
         <v>45549</v>
@@ -13921,9 +13800,9 @@
         <v>13.45833333333333</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B349" s="2">
         <v>45559</v>
@@ -13932,9 +13811,9 @@
         <v>13.41666666666667</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B350" s="2">
         <v>45467</v>
@@ -13943,9 +13822,9 @@
         <v>3.2166666666666668</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B351" s="2">
         <v>45477</v>
@@ -13954,9 +13833,9 @@
         <v>4.0916666666666668</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B352" s="2">
         <v>45488</v>
@@ -13965,9 +13844,9 @@
         <v>5.0250000000000004</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B353" s="2">
         <v>45499</v>
@@ -13976,9 +13855,9 @@
         <v>5.9416666666666664</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B354" s="2">
         <v>45513</v>
@@ -13987,9 +13866,9 @@
         <v>6.8916666666666666</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B355" s="2">
         <v>45523</v>
@@ -13998,9 +13877,9 @@
         <v>7.875</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B356" s="2">
         <v>45535</v>
@@ -14009,9 +13888,9 @@
         <v>9.0749999999999993</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B357" s="2">
         <v>45549</v>
@@ -14020,9 +13899,9 @@
         <v>9.9166666666666661</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B358" s="2">
         <v>45438</v>
@@ -14031,9 +13910,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B359" s="2">
         <v>45409</v>
@@ -14042,9 +13921,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B360" s="2">
         <v>45439</v>
@@ -14053,9 +13932,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B361" s="2">
         <v>45409</v>
@@ -14064,9 +13943,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B362" s="2">
         <v>45439</v>
@@ -14075,9 +13954,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B363" s="2">
         <v>45437</v>
@@ -14086,9 +13965,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B364" s="2">
         <v>45410</v>
@@ -14097,9 +13976,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B365" s="2">
         <v>45416</v>
@@ -14108,9 +13987,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B366" s="2">
         <v>45414</v>
@@ -14119,9 +13998,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B367" s="2">
         <v>45439</v>
@@ -14130,9 +14009,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B368" s="2">
         <v>45439</v>
@@ -14141,9 +14020,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B369" s="2">
         <v>45410</v>
@@ -14152,9 +14031,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B370" s="2">
         <v>45413</v>
@@ -14163,9 +14042,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B371" s="2">
         <v>45438</v>
@@ -14174,9 +14053,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B372" s="2">
         <v>45414</v>
@@ -14185,9 +14064,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B373" s="2">
         <v>45438</v>
@@ -14196,9 +14075,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B374" s="2">
         <v>45547</v>
@@ -14207,9 +14086,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B375" s="2">
         <v>45543</v>
@@ -14218,9 +14097,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B376" s="2">
         <v>45545</v>
@@ -14229,9 +14108,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B377" s="2">
         <v>45547</v>
@@ -14240,9 +14119,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B378" s="2">
         <v>45541</v>
@@ -14251,9 +14130,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B379" s="2">
         <v>45549</v>
@@ -14262,9 +14141,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B380" s="2">
         <v>45538</v>
@@ -14273,9 +14152,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B381" s="2">
         <v>45545</v>
@@ -14284,9 +14163,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B382" s="2">
         <v>45548</v>
@@ -14295,9 +14174,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B383" s="2">
         <v>45542</v>
@@ -14306,9 +14185,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B384" s="2">
         <v>45546</v>
@@ -14317,9 +14196,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B385" s="2">
         <v>45544</v>
@@ -14328,9 +14207,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B386" s="2">
         <v>45539</v>
@@ -14339,9 +14218,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B387" s="2">
         <v>45546</v>
@@ -14350,9 +14229,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B388" s="2">
         <v>45546</v>
@@ -14361,9 +14240,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B389" s="2">
         <v>45546</v>
@@ -14372,9 +14251,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B390" s="2">
         <v>45568</v>
@@ -14383,9 +14262,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B391" s="2">
         <v>45565</v>
@@ -14394,9 +14273,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B392" s="2">
         <v>45566</v>
@@ -14405,9 +14284,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B393" s="2">
         <v>45568</v>
@@ -14416,9 +14295,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B394" s="2">
         <v>45560</v>
@@ -14427,9 +14306,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B395" s="2">
         <v>45567</v>
@@ -14438,9 +14317,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B396" s="2">
         <v>45560</v>
@@ -14449,9 +14328,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B397" s="2">
         <v>45566</v>
@@ -14460,9 +14339,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B398" s="2">
         <v>45567</v>
@@ -14471,9 +14350,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B399" s="2">
         <v>45561</v>
@@ -14482,9 +14361,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B400" s="2">
         <v>45567</v>
@@ -14493,9 +14372,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="401" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B401" s="2">
         <v>45566</v>
@@ -14504,9 +14383,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="402" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B402" s="2">
         <v>45560</v>
@@ -14515,9 +14394,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="403" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B403" s="2">
         <v>45566</v>
@@ -14526,9 +14405,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="404" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B404" s="2">
         <v>45567</v>
@@ -14537,9 +14416,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="405" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B405" s="2">
         <v>45567</v>
@@ -14548,9 +14427,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="406" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B406" s="2">
         <v>45547</v>
@@ -14583,9 +14462,9 @@
         <v>25.490666200450729</v>
       </c>
     </row>
-    <row r="407" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B407" s="2">
         <v>45545</v>
@@ -14618,9 +14497,9 @@
         <v>54.595464549415837</v>
       </c>
     </row>
-    <row r="408" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B408" s="2">
         <v>45546</v>
@@ -14653,9 +14532,9 @@
         <v>47.850542432158313</v>
       </c>
     </row>
-    <row r="409" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B409" s="2">
         <v>45548</v>
@@ -14688,9 +14567,9 @@
         <v>38.489227700605653</v>
       </c>
     </row>
-    <row r="410" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B410" s="2">
         <v>45544</v>
@@ -14723,9 +14602,9 @@
         <v>45.243379549593968</v>
       </c>
     </row>
-    <row r="411" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B411" s="2">
         <v>45548</v>
@@ -14758,9 +14637,9 @@
         <v>31.275991535149721</v>
       </c>
     </row>
-    <row r="412" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B412" s="2">
         <v>45540</v>
@@ -14793,9 +14672,9 @@
         <v>33.024158674813172</v>
       </c>
     </row>
-    <row r="413" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B413" s="2">
         <v>45547</v>
@@ -14828,9 +14707,9 @@
         <v>50.322414393181241</v>
       </c>
     </row>
-    <row r="414" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B414" s="2">
         <v>45547</v>
@@ -14863,9 +14742,9 @@
         <v>46.660261043259311</v>
       </c>
     </row>
-    <row r="415" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B415" s="2">
         <v>45544</v>
@@ -14898,9 +14777,9 @@
         <v>46.638825786774142</v>
       </c>
     </row>
-    <row r="416" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B416" s="2">
         <v>45547</v>
@@ -14933,9 +14812,9 @@
         <v>22.59565709409236</v>
       </c>
     </row>
-    <row r="417" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B417" s="2">
         <v>45545</v>
@@ -14968,9 +14847,9 @@
         <v>30.276819679847101</v>
       </c>
     </row>
-    <row r="418" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B418" s="2">
         <v>45540</v>
@@ -15003,9 +14882,9 @@
         <v>37.442923298242931</v>
       </c>
     </row>
-    <row r="419" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B419" s="2">
         <v>45546</v>
@@ -15038,9 +14917,9 @@
         <v>46.879238151178633</v>
       </c>
     </row>
-    <row r="420" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B420" s="2">
         <v>45546</v>
@@ -15073,9 +14952,9 @@
         <v>33.037881119998332</v>
       </c>
     </row>
-    <row r="421" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B421" s="2">
         <v>45547</v>
@@ -15108,9 +14987,9 @@
         <v>27.437421259435212</v>
       </c>
     </row>
-    <row r="422" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B422" s="2">
         <v>45568</v>
@@ -15140,9 +15019,9 @@
         <v>146.61565608908731</v>
       </c>
     </row>
-    <row r="423" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B423" s="2">
         <v>45566</v>
@@ -15172,9 +15051,9 @@
         <v>177.58881145065951</v>
       </c>
     </row>
-    <row r="424" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B424" s="2">
         <v>45566</v>
@@ -15204,9 +15083,9 @@
         <v>136.87200639126979</v>
       </c>
     </row>
-    <row r="425" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B425" s="2">
         <v>45567</v>
@@ -15236,9 +15115,9 @@
         <v>150.12104962936399</v>
       </c>
     </row>
-    <row r="426" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B426" s="2">
         <v>45560</v>
@@ -15268,9 +15147,9 @@
         <v>155.87454297515859</v>
       </c>
     </row>
-    <row r="427" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B427" s="2">
         <v>45568</v>
@@ -15300,9 +15179,9 @@
         <v>149.43458812445789</v>
       </c>
     </row>
-    <row r="428" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B428" s="2">
         <v>45560</v>
@@ -15332,9 +15211,9 @@
         <v>172.12493527781609</v>
       </c>
     </row>
-    <row r="429" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B429" s="2">
         <v>45565</v>
@@ -15364,9 +15243,9 @@
         <v>137.76821007521019</v>
       </c>
     </row>
-    <row r="430" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B430" s="2">
         <v>45567</v>
@@ -15396,9 +15275,9 @@
         <v>170.00439958530151</v>
       </c>
     </row>
-    <row r="431" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B431" s="2">
         <v>45561</v>
@@ -15428,9 +15307,9 @@
         <v>153.6160385180892</v>
       </c>
     </row>
-    <row r="432" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B432" s="2">
         <v>45567</v>
@@ -15460,9 +15339,9 @@
         <v>154.9247885691353</v>
       </c>
     </row>
-    <row r="433" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B433" s="2">
         <v>45566</v>
@@ -15492,9 +15371,9 @@
         <v>163.69579409470529</v>
       </c>
     </row>
-    <row r="434" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B434" s="2">
         <v>45560</v>
@@ -15524,9 +15403,9 @@
         <v>188.62571517438059</v>
       </c>
     </row>
-    <row r="435" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B435" s="2">
         <v>45567</v>
@@ -15556,9 +15435,9 @@
         <v>175.65713997621461</v>
       </c>
     </row>
-    <row r="436" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B436" s="2">
         <v>45567</v>
@@ -15588,9 +15467,9 @@
         <v>151.36825159569401</v>
       </c>
     </row>
-    <row r="437" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B437" s="2">
         <v>45568</v>
@@ -15620,9 +15499,9 @@
         <v>164.13654591062729</v>
       </c>
     </row>
-    <row r="438" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B438" s="2">
         <v>45610</v>
@@ -15652,12 +15531,12 @@
         <v>12002.55036365683</v>
       </c>
       <c r="R438" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="439" spans="1:18" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="439" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B439" s="2">
         <v>45610</v>
@@ -15687,12 +15566,12 @@
         <v>13485.63188980552</v>
       </c>
       <c r="R439" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="440" spans="1:18" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="440" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B440" s="2">
         <v>45610</v>
@@ -15722,12 +15601,12 @@
         <v>11655.876441090521</v>
       </c>
       <c r="R440" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="441" spans="1:18" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="441" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B441" s="2">
         <v>45610</v>
@@ -15757,12 +15636,12 @@
         <v>12732.169357077581</v>
       </c>
       <c r="R441" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="442" spans="1:18" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="442" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B442" s="2">
         <v>45610</v>
@@ -15792,12 +15671,12 @@
         <v>13701.513209410199</v>
       </c>
       <c r="R442" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="443" spans="1:18" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="443" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B443" s="2">
         <v>45610</v>
@@ -15827,12 +15706,12 @@
         <v>13870.70875727802</v>
       </c>
       <c r="R443" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="444" spans="1:18" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="444" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B444" s="2">
         <v>45610</v>
@@ -15862,12 +15741,12 @@
         <v>14971.51746134088</v>
       </c>
       <c r="R444" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="445" spans="1:18" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="445" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B445" s="2">
         <v>45610</v>
@@ -15897,12 +15776,12 @@
         <v>12783.13564877307</v>
       </c>
       <c r="R445" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="446" spans="1:18" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="446" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B446" s="2">
         <v>45610</v>
@@ -15932,12 +15811,12 @@
         <v>13617.049746292791</v>
       </c>
       <c r="R446" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="447" spans="1:18" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="447" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B447" s="2">
         <v>45610</v>
@@ -15967,12 +15846,12 @@
         <v>10974.692766303449</v>
       </c>
       <c r="R447" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="448" spans="1:18" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="448" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B448" s="2">
         <v>45610</v>
@@ -16002,12 +15881,12 @@
         <v>13467.507898776599</v>
       </c>
       <c r="R448" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="449" spans="1:18" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="449" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B449" s="2">
         <v>45610</v>
@@ -16037,12 +15916,12 @@
         <v>13068.22098336198</v>
       </c>
       <c r="R449" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="450" spans="1:18" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="450" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B450" s="2">
         <v>45610</v>
@@ -16072,12 +15951,12 @@
         <v>15511.158321299799</v>
       </c>
       <c r="R450" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="451" spans="1:18" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="451" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B451" s="2">
         <v>45610</v>
@@ -16107,12 +15986,12 @@
         <v>11147.43704788128</v>
       </c>
       <c r="R451" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="452" spans="1:18" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="452" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B452" s="2">
         <v>45610</v>
@@ -16142,12 +16021,12 @@
         <v>10935.137211216001</v>
       </c>
       <c r="R452" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="453" spans="1:18" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="453" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B453" s="2">
         <v>45610</v>
@@ -16177,7 +16056,7 @@
         <v>11167.35229024922</v>
       </c>
       <c r="R453" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -16189,67 +16068,67 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87CC66D-0339-446B-A2C9-D9EFC4FCE9EC}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" t="s">
         <v>38</v>
-      </c>
-      <c r="G1" t="s">
-        <v>39</v>
       </c>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F2">
         <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F3">
         <v>6</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F4">
         <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F10" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="9" t="str">
         <f>VLOOKUP(G11,$F$1:$G$4,2,FALSE)</f>
@@ -16264,7 +16143,7 @@
         <v>[Wheat].Phenology.Flowering.DateToProgress</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -16276,7 +16155,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="str">
         <f>F12</f>
         <v>DookieWWHI2024CvGregorySow14-May</v>
@@ -16294,7 +16173,7 @@
         <v>45568</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G12" s="7">
         <v>45438</v>
@@ -16306,7 +16185,7 @@
         <v>45568</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="str">
         <f t="shared" ref="A13:A27" si="1">F13</f>
         <v>DookieWWHI2024CvIllaboSow17-Apr</v>
@@ -16324,7 +16203,7 @@
         <v>45565</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G13" s="8">
         <v>45409</v>
@@ -16336,7 +16215,7 @@
         <v>45565</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="str">
         <f t="shared" si="1"/>
         <v>DookieWWHI2024CvJanzSow14-May</v>
@@ -16354,7 +16233,7 @@
         <v>45566</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G14" s="8">
         <v>45439</v>
@@ -16366,7 +16245,7 @@
         <v>45566</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="str">
         <f t="shared" si="1"/>
         <v>DookieWWHI2024CvKittyhawkSow17-Apr</v>
@@ -16384,7 +16263,7 @@
         <v>45568</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G15" s="8">
         <v>45409</v>
@@ -16396,7 +16275,7 @@
         <v>45568</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="str">
         <f t="shared" si="1"/>
         <v>DookieWWHI2024CvMaceSow14-May</v>
@@ -16414,7 +16293,7 @@
         <v>45560</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G16" s="8">
         <v>45439</v>
@@ -16426,7 +16305,7 @@
         <v>45560</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="str">
         <f t="shared" si="1"/>
         <v>DookieWWHI2024CvMeeringSow14-May</v>
@@ -16444,7 +16323,7 @@
         <v>45567</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G17" s="8">
         <v>45437</v>
@@ -16456,7 +16335,7 @@
         <v>45567</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="str">
         <f t="shared" si="1"/>
         <v>DookieWWHI2024CvMowhawkSow17-Apr</v>
@@ -16474,7 +16353,7 @@
         <v>45560</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G18" s="8">
         <v>45410</v>
@@ -16486,7 +16365,7 @@
         <v>45560</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="str">
         <f t="shared" si="1"/>
         <v>DookieWWHI2024CvOspreySow17-Apr</v>
@@ -16504,7 +16383,7 @@
         <v>45566</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G19" s="7">
         <v>45416</v>
@@ -16516,7 +16395,7 @@
         <v>45566</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="str">
         <f t="shared" si="1"/>
         <v>DookieWWHI2024CvRosellaSow17-Apr</v>
@@ -16534,7 +16413,7 @@
         <v>45567</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G20" s="8">
         <v>45414</v>
@@ -16546,7 +16425,7 @@
         <v>45567</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="str">
         <f t="shared" si="1"/>
         <v>DookieWWHI2024CvScepterSow14-May</v>
@@ -16564,7 +16443,7 @@
         <v>45561</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G21" s="8">
         <v>45439</v>
@@ -16576,7 +16455,7 @@
         <v>45561</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="str">
         <f t="shared" si="1"/>
         <v>DookieWWHI2024CvSunmasterSow14-May</v>
@@ -16594,7 +16473,7 @@
         <v>45567</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G22" s="8">
         <v>45439</v>
@@ -16606,7 +16485,7 @@
         <v>45567</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="str">
         <f t="shared" si="1"/>
         <v>DookieWWHI2024CvWedgetailSow17-Apr</v>
@@ -16624,7 +16503,7 @@
         <v>45566</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G23" s="8">
         <v>45410</v>
@@ -16636,7 +16515,7 @@
         <v>45566</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="str">
         <f t="shared" si="1"/>
         <v>DookieWWHI2024CvWhistlerSow17-Apr</v>
@@ -16654,7 +16533,7 @@
         <v>45560</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G24" s="8">
         <v>45413</v>
@@ -16666,7 +16545,7 @@
         <v>45560</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="str">
         <f t="shared" si="1"/>
         <v>DookieWWHI2024CvWyalkatchemSow14-May</v>
@@ -16684,7 +16563,7 @@
         <v>45566</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G25" s="8">
         <v>45438</v>
@@ -16696,7 +16575,7 @@
         <v>45566</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="str">
         <f t="shared" si="1"/>
         <v>DookieWWHI2024CvWylahSow17-Apr</v>
@@ -16714,7 +16593,7 @@
         <v>45567</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G26" s="8">
         <v>45414</v>
@@ -16726,7 +16605,7 @@
         <v>45567</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="str">
         <f t="shared" si="1"/>
         <v>DookieWWHI2024CvYitpiSow14-May</v>
@@ -16744,7 +16623,7 @@
         <v>45567</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G27" s="8">
         <v>45438</v>
